--- a/Transfer application form.xlsx
+++ b/Transfer application form.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="511">
   <si>
     <t>JOINING REPORT</t>
   </si>
@@ -1640,6 +1640,27 @@
   </si>
   <si>
     <t>Hindu</t>
+  </si>
+  <si>
+    <t>Mannipur</t>
+  </si>
+  <si>
+    <t>Warishnagar</t>
+  </si>
+  <si>
+    <t>Sari</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>47</t>
   </si>
 </sst>
 </file>
@@ -14452,8 +14473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15381,39 +15402,43 @@
       <c r="A32" s="392" t="s">
         <v>374</v>
       </c>
-      <c r="B32" s="653" t="str">
-        <f>+MASTERSHEET!B39</f>
-        <v>Sudhir Kumar Singh ,Sushila Devi</v>
+      <c r="B32" s="653" t="s">
+        <v>487</v>
       </c>
       <c r="C32" s="654"/>
       <c r="D32" s="654"/>
       <c r="E32" s="655"/>
-      <c r="F32" s="653" t="str">
-        <f>+MASTERSHEET!C39</f>
-        <v>Father , Mother</v>
+      <c r="F32" s="653" t="s">
+        <v>479</v>
       </c>
       <c r="G32" s="655"/>
-      <c r="H32" s="393" t="str">
-        <f>+MASTERSHEET!E39</f>
-        <v>47,45</v>
-      </c>
-      <c r="I32" s="394" t="str">
-        <f>+MASTERSHEET!F39</f>
-        <v>50%,50%</v>
+      <c r="H32" s="393" t="s">
+        <v>510</v>
+      </c>
+      <c r="I32" s="394">
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A33" s="392" t="s">
         <v>375</v>
       </c>
-      <c r="B33" s="653"/>
+      <c r="B33" s="653" t="s">
+        <v>495</v>
+      </c>
       <c r="C33" s="654"/>
       <c r="D33" s="654"/>
       <c r="E33" s="655"/>
-      <c r="F33" s="656"/>
+      <c r="F33" s="656" t="s">
+        <v>480</v>
+      </c>
       <c r="G33" s="656"/>
-      <c r="H33" s="393"/>
-      <c r="I33" s="395"/>
+      <c r="H33" s="393" t="s">
+        <v>508</v>
+      </c>
+      <c r="I33" s="395" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="34" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A34" s="392" t="s">
@@ -17426,11 +17451,15 @@
       <c r="B52" s="228" t="s">
         <v>387</v>
       </c>
-      <c r="C52" s="228"/>
+      <c r="C52" s="228" t="s">
+        <v>504</v>
+      </c>
       <c r="D52" s="228" t="s">
         <v>388</v>
       </c>
-      <c r="E52" s="642"/>
+      <c r="E52" s="642" t="s">
+        <v>505</v>
+      </c>
       <c r="F52" s="642"/>
       <c r="G52" s="624" t="s">
         <v>389</v>
@@ -17690,17 +17719,23 @@
       <c r="B53" s="228" t="s">
         <v>390</v>
       </c>
-      <c r="C53" s="228"/>
+      <c r="C53" s="228" t="s">
+        <v>506</v>
+      </c>
       <c r="D53" s="228" t="s">
         <v>391</v>
       </c>
-      <c r="E53" s="642"/>
+      <c r="E53" s="642" t="s">
+        <v>485</v>
+      </c>
       <c r="F53" s="642"/>
       <c r="G53" s="624" t="s">
         <v>169</v>
       </c>
       <c r="H53" s="624"/>
-      <c r="I53" s="370"/>
+      <c r="I53" s="370" t="s">
+        <v>507</v>
+      </c>
       <c r="J53" s="230"/>
       <c r="K53" s="230"/>
       <c r="L53" s="230"/>
